--- a/docs/詳細設計/AHA.xlsx
+++ b/docs/詳細設計/AHA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35D2252-2BE7-44AE-BA52-D658E31FE8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EB5DA9-7967-4FB0-98AA-F5F6B7224015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -102,7 +102,7 @@
     <t>2020/2/5</t>
   </si>
   <si>
-    <t>スタッフへの要望</t>
+    <t>player登録</t>
   </si>
   <si>
     <t>RDBMS</t>
@@ -360,10 +360,19 @@
     <t>匿名可能</t>
   </si>
   <si>
-    <t>書籍リクエスト</t>
-  </si>
-  <si>
-    <t>requests_list</t>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>password_hash()を使用</t>
+  </si>
+  <si>
+    <t>問題リスト</t>
+  </si>
+  <si>
+    <t>AHA問題リスト</t>
+  </si>
+  <si>
+    <t>questions_list</t>
   </si>
   <si>
     <t>難易度</t>
@@ -378,6 +387,9 @@
     <t>before_png</t>
   </si>
   <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
     <t>変更後png</t>
   </si>
   <si>
@@ -397,6 +409,15 @@
   </si>
   <si>
     <t>答えpngで伝えづらい場合など</t>
+  </si>
+  <si>
+    <t>論理削除</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>0:未削除、1:削除済み</t>
   </si>
 </sst>
 </file>
@@ -476,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1242,11 +1263,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1371,70 +1429,58 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,15 +1493,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,13 +1519,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,7 +1968,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1929,17 +1999,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="80"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -1947,15 +2017,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -1963,15 +2033,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -1979,17 +2049,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -1997,57 +2067,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -2178,7 +2248,7 @@
       <c r="C17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -2217,7 +2287,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -2241,7 +2311,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="48"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2301,10 +2371,10 @@
       <c r="B24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="35" t="s">
         <v>37</v>
       </c>
@@ -2364,12 +2434,12 @@
       <c r="C28" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
@@ -2401,15 +2471,15 @@
       <c r="B31" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="41"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="77"/>
+      <c r="G31" s="42" t="s">
         <v>75</v>
       </c>
       <c r="H31" s="2"/>
@@ -2443,15 +2513,15 @@
       <c r="B34" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="41"/>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="43" t="s">
+      <c r="F34" s="77"/>
+      <c r="G34" s="42" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="2"/>
@@ -2485,15 +2555,15 @@
       <c r="B37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="41"/>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="43" t="s">
+      <c r="F37" s="77"/>
+      <c r="G37" s="42" t="s">
         <v>83</v>
       </c>
       <c r="H37" s="2"/>
@@ -2537,297 +2607,297 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="44">
+      <c r="A41" s="43">
         <v>1</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="45">
+      <c r="A42" s="44">
         <v>2</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="45">
+      <c r="A43" s="44">
         <v>3</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="45">
+      <c r="A44" s="44">
         <v>4</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="45">
+      <c r="A45" s="44">
         <v>5</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="45">
+      <c r="A46" s="44">
         <v>6</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="45">
+      <c r="A47" s="44">
         <v>7</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="45">
+      <c r="A48" s="44">
         <v>8</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="45">
+      <c r="A49" s="44">
         <v>9</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="45">
+      <c r="A50" s="44">
         <v>10</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="45">
+      <c r="A51" s="44">
         <v>11</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="45">
+      <c r="A52" s="44">
         <v>12</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="45">
+      <c r="A53" s="44">
         <v>13</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="45">
+      <c r="A54" s="44">
         <v>14</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="81"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="45">
+      <c r="A55" s="44">
         <v>15</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="45">
+      <c r="A56" s="44">
         <v>16</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="45">
+      <c r="A57" s="44">
         <v>17</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="45">
+      <c r="A58" s="44">
         <v>18</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="45">
+      <c r="A59" s="44">
         <v>19</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="45">
+      <c r="A60" s="44">
         <v>20</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="81"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="46">
+      <c r="A61" s="45">
         <v>21</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="57"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
@@ -2845,12 +2915,46 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="C5:D5"/>
@@ -2864,46 +2968,12 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2913,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36F9D0E-2496-4EEE-8954-35E5EB8CCD6F}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2945,17 +3015,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="80"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -2963,15 +3033,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -2979,15 +3049,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2995,17 +3065,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="69"/>
+      <c r="C5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="58"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -3013,57 +3083,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -3171,7 +3241,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>37</v>
@@ -3180,7 +3250,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -3293,10 +3363,10 @@
       <c r="B23" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="35" t="s">
         <v>37</v>
       </c>
@@ -3356,12 +3426,12 @@
       <c r="C27" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
@@ -3393,15 +3463,15 @@
       <c r="B30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="41"/>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="77"/>
+      <c r="G30" s="42" t="s">
         <v>75</v>
       </c>
       <c r="H30" s="2"/>
@@ -3435,15 +3505,15 @@
       <c r="B33" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="41"/>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="43" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="42" t="s">
         <v>78</v>
       </c>
       <c r="H33" s="2"/>
@@ -3477,15 +3547,15 @@
       <c r="B36" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="41"/>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="43" t="s">
+      <c r="F36" s="77"/>
+      <c r="G36" s="42" t="s">
         <v>83</v>
       </c>
       <c r="H36" s="2"/>
@@ -3529,297 +3599,297 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="44">
+      <c r="A40" s="43">
         <v>1</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="45">
+      <c r="A41" s="44">
         <v>2</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="45">
+      <c r="A42" s="44">
         <v>3</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="45">
+      <c r="A43" s="44">
         <v>4</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="45">
+      <c r="A44" s="44">
         <v>5</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="45">
+      <c r="A45" s="44">
         <v>6</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="45">
+      <c r="A46" s="44">
         <v>7</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="45">
+      <c r="A47" s="44">
         <v>8</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="45">
+      <c r="A48" s="44">
         <v>9</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="45">
+      <c r="A49" s="44">
         <v>10</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="45">
+      <c r="A50" s="44">
         <v>11</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="45">
+      <c r="A51" s="44">
         <v>12</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="45">
+      <c r="A52" s="44">
         <v>13</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="45">
+      <c r="A53" s="44">
         <v>14</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="45">
+      <c r="A54" s="44">
         <v>15</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="81"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="45">
+      <c r="A55" s="44">
         <v>16</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="45">
+      <c r="A56" s="44">
         <v>17</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="45">
+      <c r="A57" s="44">
         <v>18</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="45">
+      <c r="A58" s="44">
         <v>19</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="45">
+      <c r="A59" s="44">
         <v>20</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="46">
+      <c r="A60" s="45">
         <v>21</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="57"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
@@ -3834,12 +3904,46 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="C5:D5"/>
@@ -3853,46 +3957,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3900,10 +3970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BAF6E4-A7FA-4CC9-8C32-B2AF5F73213A}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3934,17 +4004,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="80"/>
+      <c r="C2" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="55"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -3952,15 +4022,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -3968,15 +4038,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -3984,17 +4054,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="69"/>
+      <c r="C5" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="58"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -4002,57 +4072,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="69"/>
+      <c r="C6" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="58"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -4130,10 +4200,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>42</v>
@@ -4152,13 +4222,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>37</v>
@@ -4172,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>37</v>
@@ -4192,13 +4262,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>37</v>
@@ -4212,85 +4282,95 @@
         <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21">
+      <c r="A20" s="50">
         <v>7</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="25">
-        <v>8</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G22" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4300,61 +4380,61 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="11" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G25" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="34">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
+      <c r="A26" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C26" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="35" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4364,55 +4444,55 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D29" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="34">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="34">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C30" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D30" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -4421,40 +4501,40 @@
       <c r="G31" s="9"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="A33" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B33" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C33" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="62" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="63"/>
-      <c r="G32" s="43" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -4463,40 +4543,40 @@
       <c r="G34" s="9"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="A36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B36" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C36" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="62" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="43" t="s">
+      <c r="F36" s="77"/>
+      <c r="G36" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -4505,40 +4585,40 @@
       <c r="G37" s="9"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
+      <c r="A39" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="62" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="43" t="s">
+      <c r="F39" s="77"/>
+      <c r="G39" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4548,386 +4628,398 @@
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="31" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="44">
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
+      <c r="A43" s="43">
         <v>1</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B43" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="45">
+      <c r="C43" s="61"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75">
+      <c r="A44" s="44">
         <v>2</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B44" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="45">
+      <c r="C44" s="79"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
+      <c r="A45" s="44">
         <v>3</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B45" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="45">
+      <c r="C45" s="79"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
+      <c r="A46" s="44">
         <v>4</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B46" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="45">
+      <c r="C46" s="79"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
+      <c r="A47" s="44">
         <v>5</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B47" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="45">
+      <c r="C47" s="79"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
+      <c r="A48" s="44">
         <v>6</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B48" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="45">
+      <c r="C48" s="79"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
+      <c r="A49" s="44">
         <v>7</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B49" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="45">
+      <c r="C49" s="79"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75">
+      <c r="A50" s="44">
         <v>8</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B50" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="45">
+      <c r="C50" s="79"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75">
+      <c r="A51" s="44">
         <v>9</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B51" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="45">
+      <c r="C51" s="79"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75">
+      <c r="A52" s="44">
         <v>10</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B52" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="45">
+      <c r="C52" s="79"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75">
+      <c r="A53" s="44">
         <v>11</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B53" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="45">
+      <c r="C53" s="79"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75">
+      <c r="A54" s="44">
         <v>12</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B54" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="45">
+      <c r="C54" s="79"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75">
+      <c r="A55" s="44">
         <v>13</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B55" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="45">
+      <c r="C55" s="79"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
+      <c r="A56" s="44">
         <v>14</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B56" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="45">
+      <c r="C56" s="79"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
+      <c r="A57" s="44">
         <v>15</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B57" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="45">
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75">
+      <c r="A58" s="44">
         <v>16</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B58" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="45">
+      <c r="C58" s="79"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75">
+      <c r="A59" s="44">
         <v>17</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B59" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="45">
+      <c r="C59" s="79"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75">
+      <c r="A60" s="44">
         <v>18</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B60" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="45">
+      <c r="C60" s="79"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75">
+      <c r="A61" s="44">
         <v>19</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B61" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="45">
+      <c r="C61" s="79"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75">
+      <c r="A62" s="44">
         <v>20</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B62" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="46">
+      <c r="C62" s="79"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75">
+      <c r="A63" s="45">
         <v>21</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B63" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
       <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/詳細設計/AHA.xlsx
+++ b/docs/詳細設計/AHA.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EB5DA9-7967-4FB0-98AA-F5F6B7224015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6069226-D19F-44EA-B2D9-D4C15279364C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="登録player" sheetId="2" r:id="rId2"/>
     <sheet name="管理者" sheetId="3" r:id="rId3"/>
     <sheet name="問題" sheetId="4" r:id="rId4"/>
+    <sheet name="解いた問題 " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -168,256 +169,256 @@
     <t>password</t>
   </si>
   <si>
-    <t>ログイン時に必要</t>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>password_hash()を使用</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>create_date_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>レコードの登録日時</t>
+  </si>
+  <si>
+    <t>レコード更新日時</t>
+  </si>
+  <si>
+    <t>updated_date_time</t>
+  </si>
+  <si>
+    <t>on_update_CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>制約情報</t>
+  </si>
+  <si>
+    <t>制約名</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>制約定義</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>外部キー情報</t>
+  </si>
+  <si>
+    <t>外部キー名</t>
+  </si>
+  <si>
+    <t>参照先テーブル名</t>
+  </si>
+  <si>
+    <t>参照先カラムリスト</t>
+  </si>
+  <si>
+    <t>外部キー情報(PK側)</t>
+  </si>
+  <si>
+    <t>参照元テーブル名</t>
+  </si>
+  <si>
+    <t>参照元カラムリスト</t>
+  </si>
+  <si>
+    <t>トリガー情報</t>
+  </si>
+  <si>
+    <t>トリガー名</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>タイミング</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>RDBMS固有の情報</t>
+  </si>
+  <si>
+    <t>プロパティ名</t>
+  </si>
+  <si>
+    <t>プロパティ値</t>
+  </si>
+  <si>
+    <t>TABLE_CATALOG</t>
+  </si>
+  <si>
+    <t>TABLE_SCHEMA</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>TABLE_TYPE</t>
+  </si>
+  <si>
+    <t>ENGINE</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>ROW_FORMAT</t>
+  </si>
+  <si>
+    <t>TABLE_ROWS</t>
+  </si>
+  <si>
+    <t>AVG_ROW_LENGTH</t>
+  </si>
+  <si>
+    <t>DATA_LENGTH</t>
+  </si>
+  <si>
+    <t>MAX_DATA_LENGTH</t>
+  </si>
+  <si>
+    <t>INDEX_LENGTH</t>
+  </si>
+  <si>
+    <t>DATA_FREE</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>CHECK_TIME</t>
+  </si>
+  <si>
+    <t>TABLE_COLLATION</t>
+  </si>
+  <si>
+    <t>CHECKSUM</t>
+  </si>
+  <si>
+    <t>CREATE_OPTIONS</t>
+  </si>
+  <si>
+    <t>TABLE_COMMENT</t>
+  </si>
+  <si>
+    <t>投稿者</t>
+  </si>
+  <si>
+    <t>匿名可能</t>
+  </si>
+  <si>
+    <t>問題リスト</t>
+  </si>
+  <si>
+    <t>AHA問題リスト</t>
+  </si>
+  <si>
+    <t>questions_list</t>
+  </si>
+  <si>
+    <t>難易度</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>変更前png</t>
+  </si>
+  <si>
+    <t>before_png</t>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+  </si>
+  <si>
+    <t>変更後png</t>
+  </si>
+  <si>
+    <t>after_png</t>
+  </si>
+  <si>
+    <t>答えpng</t>
+  </si>
+  <si>
+    <t>answer_png</t>
+  </si>
+  <si>
+    <t>答えの解説</t>
+  </si>
+  <si>
+    <t>answer_comment</t>
+  </si>
+  <si>
+    <t>答えpngで伝えづらい場合など</t>
+  </si>
+  <si>
+    <t>論理削除</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>tiny_int</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0:未削除、1:削除済み</t>
   </si>
   <si>
     <t>解いた問題</t>
   </si>
   <si>
-    <t>comp_q</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>解いた問題のIDを列挙</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>create_date_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>レコードの登録日時</t>
-  </si>
-  <si>
-    <t>レコード更新日時</t>
-  </si>
-  <si>
-    <t>updated_date_time</t>
-  </si>
-  <si>
-    <t>on_update_CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>PRIMARY</t>
-  </si>
-  <si>
-    <t>制約情報</t>
-  </si>
-  <si>
-    <t>制約名</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>制約定義</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>外部キー情報</t>
-  </si>
-  <si>
-    <t>外部キー名</t>
-  </si>
-  <si>
-    <t>参照先テーブル名</t>
-  </si>
-  <si>
-    <t>参照先カラムリスト</t>
-  </si>
-  <si>
-    <t>外部キー情報(PK側)</t>
-  </si>
-  <si>
-    <t>参照元テーブル名</t>
-  </si>
-  <si>
-    <t>参照元カラムリスト</t>
-  </si>
-  <si>
-    <t>トリガー情報</t>
-  </si>
-  <si>
-    <t>トリガー名</t>
-  </si>
-  <si>
-    <t>イベント</t>
-  </si>
-  <si>
-    <t>タイミング</t>
-  </si>
-  <si>
-    <t>条件</t>
-  </si>
-  <si>
-    <t>RDBMS固有の情報</t>
-  </si>
-  <si>
-    <t>プロパティ名</t>
-  </si>
-  <si>
-    <t>プロパティ値</t>
-  </si>
-  <si>
-    <t>TABLE_CATALOG</t>
-  </si>
-  <si>
-    <t>TABLE_SCHEMA</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>TABLE_TYPE</t>
-  </si>
-  <si>
-    <t>ENGINE</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>ROW_FORMAT</t>
-  </si>
-  <si>
-    <t>TABLE_ROWS</t>
-  </si>
-  <si>
-    <t>AVG_ROW_LENGTH</t>
-  </si>
-  <si>
-    <t>DATA_LENGTH</t>
-  </si>
-  <si>
-    <t>MAX_DATA_LENGTH</t>
-  </si>
-  <si>
-    <t>INDEX_LENGTH</t>
-  </si>
-  <si>
-    <t>DATA_FREE</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>CHECK_TIME</t>
-  </si>
-  <si>
-    <t>TABLE_COLLATION</t>
-  </si>
-  <si>
-    <t>CHECKSUM</t>
-  </si>
-  <si>
-    <t>CREATE_OPTIONS</t>
-  </si>
-  <si>
-    <t>TABLE_COMMENT</t>
-  </si>
-  <si>
-    <t>投稿者</t>
-  </si>
-  <si>
-    <t>匿名可能</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>password_hash()を使用</t>
-  </si>
-  <si>
-    <t>問題リスト</t>
-  </si>
-  <si>
-    <t>AHA問題リスト</t>
-  </si>
-  <si>
-    <t>questions_list</t>
-  </si>
-  <si>
-    <t>難易度</t>
-  </si>
-  <si>
-    <t>difficulty</t>
-  </si>
-  <si>
-    <t>変更前png</t>
-  </si>
-  <si>
-    <t>before_png</t>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-  </si>
-  <si>
-    <t>変更後png</t>
-  </si>
-  <si>
-    <t>after_png</t>
-  </si>
-  <si>
-    <t>答えpng</t>
-  </si>
-  <si>
-    <t>answer_png</t>
-  </si>
-  <si>
-    <t>答えの解説</t>
-  </si>
-  <si>
-    <t>answer_comment</t>
-  </si>
-  <si>
-    <t>答えpngで伝えづらい場合など</t>
-  </si>
-  <si>
-    <t>論理削除</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>0:未削除、1:削除済み</t>
+    <t xml:space="preserve">comp_questions_list	</t>
+  </si>
+  <si>
+    <t>players_ID</t>
+  </si>
+  <si>
+    <t>questions_ID</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1447,22 +1448,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD45BD87-703C-40D5-9D67-6137C875DDDB}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1999,17 +1997,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -2017,15 +2015,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -2033,15 +2031,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -2049,17 +2047,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -2067,57 +2065,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -2225,7 +2223,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>37</v>
@@ -2234,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -2243,85 +2241,73 @@
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="48" t="s">
         <v>49</v>
       </c>
+      <c r="D17" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="22" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="46">
+        <v>5</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="E18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="F18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="46">
-        <v>6</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="A19" s="47"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="47"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2331,61 +2317,61 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:8" ht="15.75">
+      <c r="A23" s="34">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="34">
-        <v>1</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2395,55 +2381,55 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
+      <c r="A27" s="34">
+        <v>1</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="D27" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="34">
-        <v>1</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2452,40 +2438,40 @@
       <c r="G29" s="9"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2494,40 +2480,40 @@
       <c r="G32" s="9"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="A33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="G33" s="42" t="s">
+        <v>74</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="42" t="s">
-        <v>78</v>
-      </c>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2536,40 +2522,40 @@
       <c r="G35" s="9"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="A36" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="76"/>
+      <c r="G36" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="40" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2579,395 +2565,383 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="43">
+        <v>1</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
+      <c r="A41" s="44">
+        <v>2</v>
+      </c>
+      <c r="B41" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="43">
-        <v>1</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="44">
-        <v>2</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
+        <v>3</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="44">
-        <v>3</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="44">
-        <v>4</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
+        <v>5</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="44">
-        <v>5</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+        <v>6</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="44">
-        <v>6</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
+        <v>7</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="44">
-        <v>7</v>
-      </c>
-      <c r="B47" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
+        <v>8</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="44">
-        <v>8</v>
-      </c>
-      <c r="B48" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+        <v>9</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="44">
-        <v>9</v>
-      </c>
-      <c r="B49" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="44">
-        <v>10</v>
-      </c>
-      <c r="B50" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
+        <v>11</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="44">
-        <v>11</v>
-      </c>
-      <c r="B51" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
+        <v>12</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="44">
-        <v>12</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
+        <v>13</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="44">
-        <v>13</v>
-      </c>
-      <c r="B53" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+        <v>14</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="44">
-        <v>14</v>
-      </c>
-      <c r="B54" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
+        <v>15</v>
+      </c>
+      <c r="B54" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="44">
-        <v>15</v>
-      </c>
-      <c r="B55" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
+        <v>16</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="44">
-        <v>16</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
+        <v>17</v>
+      </c>
+      <c r="B56" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="44">
-        <v>17</v>
-      </c>
-      <c r="B57" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+        <v>18</v>
+      </c>
+      <c r="B57" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="44">
-        <v>18</v>
-      </c>
-      <c r="B58" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
+        <v>19</v>
+      </c>
+      <c r="B58" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="44">
-        <v>19</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+        <v>20</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="44">
-        <v>20</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
+      <c r="A60" s="45">
+        <v>21</v>
+      </c>
+      <c r="B60" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="82"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="45">
-        <v>21</v>
-      </c>
-      <c r="B61" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="85"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="H63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -2984,7 +2958,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3015,17 +2989,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -3033,15 +3007,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -3049,15 +3023,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -3065,17 +3039,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -3083,57 +3057,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -3211,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>12</v>
@@ -3226,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -3241,7 +3215,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>37</v>
@@ -3250,7 +3224,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -3259,22 +3233,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -3283,22 +3257,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -3324,7 +3298,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3339,17 +3313,17 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>4</v>
@@ -3361,12 +3335,12 @@
         <v>1</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="35" t="s">
         <v>37</v>
       </c>
@@ -3388,7 +3362,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3403,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -3421,17 +3395,17 @@
         <v>1</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
@@ -3446,7 +3420,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3461,18 +3435,18 @@
         <v>1</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>59</v>
       </c>
       <c r="D30" s="41"/>
-      <c r="E30" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="77"/>
+      <c r="E30" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="76"/>
       <c r="G30" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -3488,7 +3462,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3503,18 +3477,18 @@
         <v>1</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="77"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -3530,7 +3504,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3545,18 +3519,18 @@
         <v>1</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="D36" s="41"/>
-      <c r="E36" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="77"/>
+      <c r="E36" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="76"/>
       <c r="G36" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -3572,7 +3546,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -3587,11 +3561,11 @@
         <v>1</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -3602,294 +3576,294 @@
       <c r="A40" s="43">
         <v>1</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
+      <c r="B40" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="44">
         <v>2</v>
       </c>
-      <c r="B41" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
+      <c r="B41" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="44">
         <v>3</v>
       </c>
-      <c r="B42" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81"/>
+      <c r="B42" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="44">
         <v>4</v>
       </c>
-      <c r="B43" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="81"/>
+      <c r="B43" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="44">
         <v>5</v>
       </c>
-      <c r="B44" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
+      <c r="B44" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="44">
         <v>6</v>
       </c>
-      <c r="B45" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="B45" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="44">
         <v>7</v>
       </c>
-      <c r="B46" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
+      <c r="B46" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="44">
         <v>8</v>
       </c>
-      <c r="B47" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
+      <c r="B47" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="44">
         <v>9</v>
       </c>
-      <c r="B48" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+      <c r="B48" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="44">
         <v>10</v>
       </c>
-      <c r="B49" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
+      <c r="B49" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="44">
         <v>11</v>
       </c>
-      <c r="B50" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
+      <c r="B50" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="44">
         <v>12</v>
       </c>
-      <c r="B51" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
+      <c r="B51" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="44">
         <v>13</v>
       </c>
-      <c r="B52" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
+      <c r="B52" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="44">
         <v>14</v>
       </c>
-      <c r="B53" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+      <c r="B53" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="44">
         <v>15</v>
       </c>
-      <c r="B54" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
+      <c r="B54" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="44">
         <v>16</v>
       </c>
-      <c r="B55" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
+      <c r="B55" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="44">
         <v>17</v>
       </c>
-      <c r="B56" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
+      <c r="B56" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="44">
         <v>18</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+      <c r="B57" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="44">
         <v>19</v>
       </c>
-      <c r="B58" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
+      <c r="B58" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="44">
         <v>20</v>
       </c>
-      <c r="B59" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="B59" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="45">
         <v>21</v>
       </c>
-      <c r="B60" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="85"/>
+      <c r="B60" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="82"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
@@ -3972,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BAF6E4-A7FA-4CC9-8C32-B2AF5F73213A}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4004,17 +3978,17 @@
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="55"/>
+      <c r="C2" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="54"/>
       <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -4022,15 +3996,15 @@
       <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -4038,15 +4012,15 @@
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -4054,17 +4028,17 @@
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="58"/>
+      <c r="C5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -4072,57 +4046,57 @@
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="57"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="2"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
@@ -4200,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>42</v>
@@ -4222,13 +4196,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>37</v>
@@ -4242,13 +4216,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>37</v>
@@ -4262,13 +4236,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>37</v>
@@ -4282,42 +4256,44 @@
         <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="50">
+      <c r="A20" s="48">
         <v>7</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="B20" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53" t="s">
-        <v>129</v>
+      <c r="F20" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4326,22 +4302,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="G21" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4350,22 +4326,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -4381,7 +4357,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4396,17 +4372,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>4</v>
@@ -4418,12 +4394,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="35" t="s">
         <v>37</v>
       </c>
@@ -4445,7 +4421,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4460,13 +4436,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -4478,17 +4454,17 @@
         <v>1</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
@@ -4503,7 +4479,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4518,18 +4494,18 @@
         <v>1</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="41"/>
-      <c r="E33" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="77"/>
+      <c r="E33" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="76"/>
       <c r="G33" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4545,7 +4521,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4560,18 +4536,18 @@
         <v>1</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="77"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -4587,7 +4563,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -4602,18 +4578,18 @@
         <v>1</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="D39" s="41"/>
-      <c r="E39" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="77"/>
+      <c r="E39" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="76"/>
       <c r="G39" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4629,7 +4605,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -4644,11 +4620,11 @@
         <v>1</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -4659,294 +4635,294 @@
       <c r="A43" s="43">
         <v>1</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
+      <c r="B43" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="44">
         <v>2</v>
       </c>
-      <c r="B44" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
+      <c r="B44" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="44">
         <v>3</v>
       </c>
-      <c r="B45" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="B45" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="44">
         <v>4</v>
       </c>
-      <c r="B46" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="81"/>
+      <c r="B46" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="44">
         <v>5</v>
       </c>
-      <c r="B47" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="81"/>
+      <c r="B47" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="44">
         <v>6</v>
       </c>
-      <c r="B48" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+      <c r="B48" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="44">
         <v>7</v>
       </c>
-      <c r="B49" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
+      <c r="B49" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="44">
         <v>8</v>
       </c>
-      <c r="B50" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
+      <c r="B50" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="44">
         <v>9</v>
       </c>
-      <c r="B51" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
+      <c r="B51" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="44">
         <v>10</v>
       </c>
-      <c r="B52" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
+      <c r="B52" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="44">
         <v>11</v>
       </c>
-      <c r="B53" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+      <c r="B53" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="44">
         <v>12</v>
       </c>
-      <c r="B54" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
+      <c r="B54" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="44">
         <v>13</v>
       </c>
-      <c r="B55" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
+      <c r="B55" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="44">
         <v>14</v>
       </c>
-      <c r="B56" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="81"/>
+      <c r="B56" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="44">
         <v>15</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+      <c r="B57" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="44">
         <v>16</v>
       </c>
-      <c r="B58" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
+      <c r="B58" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="44">
         <v>17</v>
       </c>
-      <c r="B59" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="B59" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="44">
         <v>18</v>
       </c>
-      <c r="B60" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="81"/>
+      <c r="B60" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="78"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="80"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="44">
         <v>19</v>
       </c>
-      <c r="B61" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="81"/>
+      <c r="B61" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="78"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="80"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="44">
         <v>20</v>
       </c>
-      <c r="B62" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="B62" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="78"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="80"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="45">
         <v>21</v>
       </c>
-      <c r="B63" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="85"/>
+      <c r="B63" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
@@ -5023,4 +4999,860 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684BE16A-E8C3-4C18-8CCE-DC1B4BC0D0FA}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="34">
+        <v>1</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="34">
+        <v>1</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="76"/>
+      <c r="G27" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="G33" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="43">
+        <v>1</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="62"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="44">
+        <v>2</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="44">
+        <v>3</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="44">
+        <v>4</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="44">
+        <v>5</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="44">
+        <v>6</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" s="44">
+        <v>7</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" s="44">
+        <v>8</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" s="44">
+        <v>9</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" s="44">
+        <v>10</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" s="44">
+        <v>11</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" s="44">
+        <v>12</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" s="44">
+        <v>13</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" s="44">
+        <v>14</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" s="44">
+        <v>15</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" s="44">
+        <v>16</v>
+      </c>
+      <c r="B52" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" s="44">
+        <v>17</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" s="44">
+        <v>18</v>
+      </c>
+      <c r="B54" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
+      <c r="A55" s="44">
+        <v>19</v>
+      </c>
+      <c r="B55" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="78"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" s="44">
+        <v>20</v>
+      </c>
+      <c r="B56" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="A57" s="45">
+        <v>21</v>
+      </c>
+      <c r="B57" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>